--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_26.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2084967.651894208</v>
+        <v>2084967.651894209</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2050770.403539702</v>
+        <v>979799.8819385115</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>156.0582739785057</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>352.7786754274493</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>20.3298104615455</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>94.69402002676107</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>160.5713327074068</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>2.18624263408637</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>126.0887386816668</v>
+        <v>146.6850513083903</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>205.8216189442608</v>
       </c>
       <c r="X8" t="n">
-        <v>304.37545260386</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>94.63926978364046</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1427,7 +1427,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675312</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>3.441682912446829</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>190.6405752120342</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>29.18937547121108</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.306260043177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>137.8524914438812</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>101.1426547140132</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2096,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>86.3656441068468</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>224.8952567231525</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>83.51327189692834</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>114.4760112588801</v>
+        <v>231.4883367804543</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2807,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113193</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>125.8203713301432</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>100.6429089206005</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3010,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3044,10 +3044,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>23.54872654978215</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3241,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>14.73664328357187</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>143.462308501028</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>63.17623246397515</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>60.54139430664836</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3715,16 +3715,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,13 +3898,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>224.8952567231588</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>216.1212269155089</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274401</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,16 +4189,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>135.1975152812759</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>215.0546805228911</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2307.009759042411</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C2" t="n">
-        <v>1938.047242101999</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D2" t="n">
-        <v>1579.781543495249</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>1193.993290897004</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>783.0073861073968</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>365.0435780055836</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X2" t="n">
-        <v>2697.149091018222</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="Y2" t="n">
-        <v>2307.009759042411</v>
+        <v>1791.109440255352</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,7 +4410,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598708</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>243.4143268306406</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>74.47814390273365</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>74.47814390273365</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>74.47814390273365</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>74.47814390273365</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>603.0615397804995</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>388.7731165986622</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>388.7731165986622</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U4" t="n">
-        <v>99.59950625323012</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V4" t="n">
-        <v>99.59950625323012</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="W4" t="n">
-        <v>99.59950625323012</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323012</v>
+        <v>243.4143268306406</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>243.4143268306406</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2694.940765125206</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2363.877877781635</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>2011.109222511521</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="Y5" t="n">
-        <v>1525.74665604171</v>
+        <v>1637.643464250441</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>773.500346212138</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1297.647259770169</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1851.37379586972</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2291.509718890064</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.3053441250784</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>409.2948950230958</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>181.3053441250784</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y7" t="n">
-        <v>181.3053441250784</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>787.7948591932184</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>787.7948591932184</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>787.7948591932184</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>402.0066065949742</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036446</v>
@@ -4805,7 +4805,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990286</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.752638628377</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W8" t="n">
-        <v>1871.983983358263</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="X8" t="n">
-        <v>1564.534031233152</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="Y8" t="n">
-        <v>1174.39469925734</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="9">
@@ -4893,7 +4893,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4990,13 +4990,13 @@
         <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>343.3601518573251</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V10" t="n">
-        <v>343.3601518573251</v>
+        <v>184.2708856551154</v>
       </c>
       <c r="W10" t="n">
         <v>53.94298182036446</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5106,37 +5106,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>531.2717563992163</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1145.168826156105</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M12" t="n">
-        <v>1452.488959436067</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N12" t="n">
-        <v>2256.900537700218</v>
+        <v>1569.24764349283</v>
       </c>
       <c r="O12" t="n">
-        <v>2536.440602918915</v>
+        <v>1818.001057576792</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2338.301679312539</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>674.2349604684799</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="C13" t="n">
-        <v>674.2349604684799</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="D13" t="n">
-        <v>674.2349604684799</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684799</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705695</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903901</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="U13" t="n">
-        <v>1184.444709648971</v>
+        <v>1209.787631771457</v>
       </c>
       <c r="V13" t="n">
-        <v>1184.444709648971</v>
+        <v>955.1031435655701</v>
       </c>
       <c r="W13" t="n">
-        <v>895.0275396120101</v>
+        <v>665.6859735286096</v>
       </c>
       <c r="X13" t="n">
-        <v>895.0275396120101</v>
+        <v>437.6964226305922</v>
       </c>
       <c r="Y13" t="n">
-        <v>674.2349604684799</v>
+        <v>245.1301850426789</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155904</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822478</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277034</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341676</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1330.779020085623</v>
       </c>
       <c r="N15" t="n">
-        <v>2107.32270539078</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="O15" t="n">
-        <v>2386.862770609478</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632138</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557903</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557903</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557903</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5492,43 +5492,43 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899128</v>
@@ -5537,22 +5537,22 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L18" t="n">
-        <v>1186.550057477699</v>
+        <v>994.1443515904452</v>
       </c>
       <c r="M18" t="n">
-        <v>1493.870190757661</v>
+        <v>1314.479671120147</v>
       </c>
       <c r="N18" t="n">
-        <v>1823.732818421694</v>
+        <v>1659.000326757765</v>
       </c>
       <c r="O18" t="n">
-        <v>2103.272883640391</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4043.320015261721</v>
+        <v>994.3109288932103</v>
       </c>
       <c r="C19" t="n">
-        <v>4043.320015261721</v>
+        <v>825.3747459653034</v>
       </c>
       <c r="D19" t="n">
-        <v>3893.203375849385</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="E19" t="n">
-        <v>3745.290282266992</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F19" t="n">
-        <v>3598.400334769082</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G19" t="n">
-        <v>3459.155393916677</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>4749.779469576119</v>
+        <v>1396.75197286698</v>
       </c>
       <c r="T19" t="n">
-        <v>4525.994054365625</v>
+        <v>1396.75197286698</v>
       </c>
       <c r="U19" t="n">
-        <v>4525.994054365625</v>
+        <v>1396.75197286698</v>
       </c>
       <c r="V19" t="n">
-        <v>4271.309566159738</v>
+        <v>1396.75197286698</v>
       </c>
       <c r="W19" t="n">
-        <v>4271.309566159738</v>
+        <v>1396.75197286698</v>
       </c>
       <c r="X19" t="n">
-        <v>4043.320015261721</v>
+        <v>1396.75197286698</v>
       </c>
       <c r="Y19" t="n">
-        <v>4043.320015261721</v>
+        <v>1175.95939372345</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>2438.464141382984</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>2587.533825585044</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L21" t="n">
-        <v>2834.298953491508</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="M21" t="n">
-        <v>3602.667099883969</v>
+        <v>1089.288466700114</v>
       </c>
       <c r="N21" t="n">
-        <v>4407.07867814812</v>
+        <v>1433.809122337731</v>
       </c>
       <c r="O21" t="n">
-        <v>4655.832092232083</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>481.4617027208823</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>481.4617027208823</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>331.3450633085465</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>331.3450633085465</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>184.4551158106362</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>184.4551158106362</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>184.4551158106362</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471194</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247865</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>964.1357418247865</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>709.4512536188996</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>709.4512536188996</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>481.4617027208823</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>481.4617027208823</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5966,40 +5966,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643324</v>
@@ -6008,25 +6008,25 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>479.0983322613956</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="L24" t="n">
-        <v>479.0983322613956</v>
+        <v>877.4353633695372</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1645.803509761999</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C25" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D25" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E25" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F25" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>4437.14914771935</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>4148.020508932908</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V25" t="n">
-        <v>3893.336020727022</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W25" t="n">
-        <v>3808.979180427094</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>3808.979180427094</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>3808.979180427094</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="26">
@@ -6212,49 +6212,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6300,28 +6300,28 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>232.3332043549315</v>
+        <v>425.8982501753262</v>
       </c>
       <c r="L27" t="n">
-        <v>479.0983322613956</v>
+        <v>1039.795319932215</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>208.7516828383383</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C28" t="n">
-        <v>208.7516828383383</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D28" t="n">
-        <v>208.7516828383383</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383383</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383383</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383383</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U28" t="n">
-        <v>1383.283935952973</v>
+        <v>730.3091390162467</v>
       </c>
       <c r="V28" t="n">
-        <v>1128.599447747086</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="W28" t="n">
-        <v>839.1822777101255</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="X28" t="n">
-        <v>611.1927268121082</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y28" t="n">
-        <v>390.400147668578</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6482,31 +6482,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341676</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1767.631387430578</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3879.867720217121</v>
+        <v>4244.714639971541</v>
       </c>
       <c r="C31" t="n">
-        <v>3710.931537289214</v>
+        <v>4075.778457043634</v>
       </c>
       <c r="D31" t="n">
-        <v>3560.814897876878</v>
+        <v>3925.661817631299</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916676</v>
+        <v>3777.748724048905</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916676</v>
+        <v>3777.748724048905</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>3609.573402368726</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916669</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916669</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>3471.538086380579</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>3621.723490625191</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014293</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014293</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="U31" t="n">
-        <v>4571.725934227851</v>
+        <v>4371.805924143403</v>
       </c>
       <c r="V31" t="n">
-        <v>4571.725934227851</v>
+        <v>4371.805924143403</v>
       </c>
       <c r="W31" t="n">
-        <v>4282.308764190891</v>
+        <v>4371.805924143403</v>
       </c>
       <c r="X31" t="n">
-        <v>4282.308764190891</v>
+        <v>4371.805924143403</v>
       </c>
       <c r="Y31" t="n">
-        <v>4061.516185047361</v>
+        <v>4371.805924143403</v>
       </c>
     </row>
     <row r="32">
@@ -6677,28 +6677,28 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514086</v>
@@ -6719,10 +6719,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231265</v>
@@ -6731,13 +6731,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341676</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>629.3975440735805</v>
       </c>
       <c r="N33" t="n">
-        <v>2107.32270539078</v>
+        <v>1433.809122337731</v>
       </c>
       <c r="O33" t="n">
-        <v>2386.862770609478</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P33" t="n">
-        <v>2591.885251391687</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3926.121309839311</v>
+        <v>3651.878169319104</v>
       </c>
       <c r="C34" t="n">
-        <v>3757.185126911404</v>
+        <v>3482.941986391198</v>
       </c>
       <c r="D34" t="n">
-        <v>3607.068487499069</v>
+        <v>3482.941986391198</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916676</v>
+        <v>3482.941986391198</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916676</v>
+        <v>3482.941986391198</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.15539391667</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.15539391667</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.15539391667</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>3471.53808638058</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>4411.546387431058</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>4645.421365436455</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="U34" t="n">
-        <v>4860.854573014293</v>
+        <v>4571.725934227852</v>
       </c>
       <c r="V34" t="n">
-        <v>4845.969074748059</v>
+        <v>4571.725934227852</v>
       </c>
       <c r="W34" t="n">
-        <v>4556.551904711098</v>
+        <v>4282.308764190891</v>
       </c>
       <c r="X34" t="n">
-        <v>4328.562353813081</v>
+        <v>4054.319213292874</v>
       </c>
       <c r="Y34" t="n">
-        <v>4107.769774669551</v>
+        <v>3833.526634149344</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6929,16 @@
         <v>488.1932370805485</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>232.3332043549315</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L36" t="n">
-        <v>479.0983322613956</v>
+        <v>1221.581209098491</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1541.916528628193</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>536.9315552689005</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="C37" t="n">
-        <v>536.9315552689005</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="D37" t="n">
-        <v>536.9315552689005</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="E37" t="n">
-        <v>389.0184616865074</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="F37" t="n">
-        <v>242.1285141885971</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028589</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028589</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431058</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436455</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>4549.859459491672</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347409</v>
+        <v>4326.074044281178</v>
       </c>
       <c r="U37" t="n">
-        <v>1275.130855347409</v>
+        <v>4036.945405494736</v>
       </c>
       <c r="V37" t="n">
-        <v>1275.130855347409</v>
+        <v>3973.131029268499</v>
       </c>
       <c r="W37" t="n">
-        <v>985.713685310448</v>
+        <v>3973.131029268499</v>
       </c>
       <c r="X37" t="n">
-        <v>757.7241344124307</v>
+        <v>3973.131029268499</v>
       </c>
       <c r="Y37" t="n">
-        <v>536.9315552689005</v>
+        <v>3752.338450124969</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,19 +7163,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7196,28 +7196,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M39" t="n">
-        <v>1595.645765494011</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>2048.924022841727</v>
+        <v>2107.32270539078</v>
       </c>
       <c r="O39" t="n">
-        <v>2328.464088060424</v>
+        <v>2386.862770609478</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2591.885251391687</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>420.3226148324642</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>420.3226148324642</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>420.3226148324642</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>420.3226148324642</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>420.3226148324642</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241958</v>
@@ -7336,46 +7336,46 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799429</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471258</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974673</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.48306298007</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585753</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557909</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119735</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.921157035287</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247928</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038351</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324642</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>420.3226148324642</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>420.3226148324642</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>420.3226148324642</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7409,10 +7409,10 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250805</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095318</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="L42" t="n">
-        <v>3158.474758001782</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="M42" t="n">
-        <v>3465.794891281743</v>
+        <v>570.8584268926101</v>
       </c>
       <c r="N42" t="n">
-        <v>3795.657518945776</v>
+        <v>1128.069692924717</v>
       </c>
       <c r="O42" t="n">
-        <v>4075.197584164473</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>4555.11514360128</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>4850.224560916994</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>564.1830073829216</v>
+        <v>3459.155393916671</v>
       </c>
       <c r="C43" t="n">
-        <v>395.2468244550147</v>
+        <v>3459.155393916671</v>
       </c>
       <c r="D43" t="n">
-        <v>245.130185042679</v>
+        <v>3459.155393916671</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916671</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916671</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916671</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916671</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916671</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380581</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625192</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636322</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403505</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431053</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436455</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.921157035281</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247865</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="U43" t="n">
-        <v>964.1357418247865</v>
+        <v>4633.687647031305</v>
       </c>
       <c r="V43" t="n">
-        <v>964.1357418247865</v>
+        <v>4379.003158825419</v>
       </c>
       <c r="W43" t="n">
-        <v>745.8314722131613</v>
+        <v>4089.585988788458</v>
       </c>
       <c r="X43" t="n">
-        <v>745.8314722131613</v>
+        <v>3861.596437890441</v>
       </c>
       <c r="Y43" t="n">
-        <v>745.8314722131613</v>
+        <v>3640.803858746911</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550606</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003444</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.3049164052</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155922</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805503</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822496</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514086</v>
@@ -7670,28 +7670,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014296</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231267</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141871</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465305</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121734</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.52631485162</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.06055659054</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614728</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690737</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.25929740961</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748358</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742903</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769788</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373973</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805661</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098444</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J45" t="n">
-        <v>2500.819361250807</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>2911.709630095319</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L45" t="n">
-        <v>3158.474758001783</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M45" t="n">
-        <v>3465.794891281745</v>
+        <v>1503.408902298184</v>
       </c>
       <c r="N45" t="n">
-        <v>3795.657518945778</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O45" t="n">
-        <v>4075.197584164475</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
-        <v>4555.115143601281</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>4850.224560916996</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014296</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.94846809807</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021848</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641236</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409493</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681291</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475758</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710805</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4241.186579017404</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C46" t="n">
-        <v>4072.250396089497</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D46" t="n">
-        <v>3922.133756677161</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E46" t="n">
-        <v>3774.220663094768</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F46" t="n">
-        <v>3627.330715596858</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916678</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916678</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916678</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380588</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.7234906252</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636329</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403512</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.54638743106</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436457</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.02113004214</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>4860.854573014296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U46" t="n">
-        <v>4860.854573014296</v>
+        <v>1362.353123809139</v>
       </c>
       <c r="V46" t="n">
-        <v>4860.854573014296</v>
+        <v>1107.668635603252</v>
       </c>
       <c r="W46" t="n">
-        <v>4860.854573014296</v>
+        <v>818.2514655662918</v>
       </c>
       <c r="X46" t="n">
-        <v>4643.627622991174</v>
+        <v>818.2514655662918</v>
       </c>
       <c r="Y46" t="n">
-        <v>4422.835043847644</v>
+        <v>597.4588864227617</v>
       </c>
     </row>
   </sheetData>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,19 +8775,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,22 +9246,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>268.0367344586605</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>63.10596476685421</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>67.16197418857325</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>118.1583172899585</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504478</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10203,13 +10203,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298194</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,19 +10899,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>124.6622522057403</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10920,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,13 +11148,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>229.6450892606812</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208047</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298473</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,7 +11379,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>277.6717966208054</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208047</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>282.7956694861305</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>27.94407814006064</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>192.3581855871782</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.27839330891777</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>28.64107701949635</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>96.77815526959002</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,13 +24130,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>24.05360135742517</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,25 +24412,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>61.34209567542487</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>203.0097264396626</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24616,10 +24616,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>171.7613411396973</v>
+        <v>54.749015618123</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>54.01160885179408</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>45.79105372596868</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24886,7 +24886,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -24898,13 +24898,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,16 +25078,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>142.9448419135954</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25129,10 +25129,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>237.4010000402561</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>23.03125996234957</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,25 +25357,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>188.9614108598529</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>105.9521741567292</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,16 +25603,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25786,13 +25786,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>61.34209567541856</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>70.40177142108212</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26077,16 +26077,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>151.0398371173015</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>10.65497486614609</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>860263.93142296</v>
+        <v>860263.9314229597</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>860263.93142296</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229599</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.93142296</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>860263.93142296</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229599</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229597</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117846</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
+        <v>508337.7776590215</v>
+      </c>
+      <c r="F2" t="n">
         <v>508337.7776590217</v>
       </c>
-      <c r="F2" t="n">
-        <v>508337.7776590216</v>
-      </c>
       <c r="G2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="H2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="I2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="J2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="K2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="L2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="M2" t="n">
         <v>508337.7776590217</v>
       </c>
-      <c r="M2" t="n">
-        <v>508337.7776590215</v>
-      </c>
       <c r="N2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.777659022</v>
       </c>
       <c r="O2" t="n">
         <v>508337.7776590218</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590219</v>
+        <v>508337.7776590216</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="H4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="F4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758696</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758692</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758697</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758698</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758697</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
+        <v>787.7936905758698</v>
+      </c>
+      <c r="P4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="P4" t="n">
-        <v>787.7936905758697</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871667</v>
       </c>
-      <c r="F5" t="n">
+      <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871667</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871665</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871667</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871669</v>
+        <v>91987.32594871667</v>
       </c>
     </row>
     <row r="6">
@@ -26522,22 +26522,22 @@
         <v>-278208.9460467886</v>
       </c>
       <c r="C6" t="n">
-        <v>311758.9331677558</v>
+        <v>311758.9331677562</v>
       </c>
       <c r="D6" t="n">
-        <v>311758.9331677557</v>
+        <v>311758.9331677559</v>
       </c>
       <c r="E6" t="n">
-        <v>-109597.3784571672</v>
+        <v>-109597.378457167</v>
       </c>
       <c r="F6" t="n">
-        <v>415562.658019729</v>
+        <v>415562.6580197292</v>
       </c>
       <c r="G6" t="n">
-        <v>415562.6580197291</v>
+        <v>415562.6580197292</v>
       </c>
       <c r="H6" t="n">
-        <v>415562.6580197291</v>
+        <v>415562.6580197292</v>
       </c>
       <c r="I6" t="n">
         <v>415562.6580197291</v>
@@ -26546,22 +26546,22 @@
         <v>239139.4388271362</v>
       </c>
       <c r="K6" t="n">
-        <v>415562.6580197289</v>
+        <v>415562.6580197292</v>
       </c>
       <c r="L6" t="n">
         <v>415562.6580197292</v>
       </c>
       <c r="M6" t="n">
-        <v>280761.6427858917</v>
+        <v>280761.6427858921</v>
       </c>
       <c r="N6" t="n">
-        <v>415562.658019729</v>
+        <v>415562.6580197294</v>
       </c>
       <c r="O6" t="n">
         <v>415562.6580197292</v>
       </c>
       <c r="P6" t="n">
-        <v>415562.6580197293</v>
+        <v>415562.658019729</v>
       </c>
     </row>
   </sheetData>
@@ -26738,46 +26738,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26796,19 +26796,19 @@
         <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26817,13 +26817,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253574</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>167.8644987858514</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>16.95242525101975</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>146.9799917975054</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>51.97117195339679</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>222.1625089560738</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,10 +27670,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>249.0379248742029</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>41.15808241696101</v>
+        <v>20.56176979023752</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27901,22 +27901,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>143.4193497731522</v>
       </c>
       <c r="X8" t="n">
-        <v>65.35564807460901</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>130.3958356744438</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>4.901797486430345e-12</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>6.41004286687045e-12</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -31130,10 +31130,10 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L3" t="n">
-        <v>56.98116194942315</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,22 +31355,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L6" t="n">
-        <v>160.6967431133293</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31613,7 +31613,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
@@ -31753,7 +31753,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31762,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>269.9050785007428</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>218.0578460103733</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31926,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +31999,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,34 +32072,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>395.5401424415009</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>285.0631269188124</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32163,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>379.0761535874854</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32482,13 +32482,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647497</v>
@@ -32503,7 +32503,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32555,16 +32555,16 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>95.47937849823302</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
         <v>341.067822345855</v>
@@ -32573,13 +32573,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,10 +32619,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
         <v>45.03122946298631</v>
@@ -32631,10 +32631,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
@@ -32643,7 +32643,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,13 +32655,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32719,13 +32719,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647497</v>
@@ -32740,7 +32740,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32789,34 +32789,34 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,10 +32856,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
         <v>45.03122946298631</v>
@@ -32868,10 +32868,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
@@ -32880,7 +32880,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32892,13 +32892,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
         <v>34.18755300444946</v>
@@ -32956,13 +32956,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946974</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647497</v>
@@ -32977,7 +32977,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33026,19 +33026,19 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>232.412182135256</v>
+        <v>37.37615808569751</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>341.067822345855</v>
@@ -33053,7 +33053,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,10 +33093,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
         <v>45.03122946298631</v>
@@ -33105,10 +33105,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
         <v>234.725964217132</v>
@@ -33117,7 +33117,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33129,13 +33129,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
         <v>34.18755300444946</v>
@@ -33193,13 +33193,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647497</v>
@@ -33214,7 +33214,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33269,28 +33269,28 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>160.5761976634609</v>
       </c>
       <c r="N30" t="n">
-        <v>408.5315900543038</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,10 +33330,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
         <v>45.03122946298631</v>
@@ -33342,10 +33342,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
         <v>234.725964217132</v>
@@ -33354,7 +33354,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33366,13 +33366,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
         <v>34.18755300444946</v>
@@ -33430,13 +33430,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647497</v>
@@ -33451,7 +33451,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33500,13 +33500,13 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>45.98376861740451</v>
       </c>
       <c r="N33" t="n">
         <v>464.5362854813463</v>
@@ -33518,16 +33518,16 @@
         <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>171.9901114440528</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,10 +33567,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
         <v>45.03122946298631</v>
@@ -33579,10 +33579,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
         <v>234.725964217132</v>
@@ -33591,7 +33591,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33603,13 +33603,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
         <v>34.18755300444946</v>
@@ -33667,13 +33667,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647497</v>
@@ -33688,7 +33688,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33737,34 +33737,34 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>232.4121821352559</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>320.3934755282634</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33804,10 +33804,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
         <v>45.03122946298631</v>
@@ -33816,10 +33816,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
         <v>234.725964217132</v>
@@ -33828,7 +33828,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33840,13 +33840,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
         <v>34.18755300444946</v>
@@ -33904,13 +33904,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647497</v>
@@ -33925,7 +33925,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33980,7 +33980,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
         <v>464.5362854813463</v>
@@ -33989,19 +33989,19 @@
         <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>171.9901114440528</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34041,10 +34041,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
         <v>45.03122946298631</v>
@@ -34053,10 +34053,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
         <v>234.725964217132</v>
@@ -34065,7 +34065,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34077,13 +34077,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
         <v>34.18755300444946</v>
@@ -34141,19 +34141,19 @@
         <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S41" t="n">
         <v>76.06970478104651</v>
@@ -34162,7 +34162,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34211,13 +34211,13 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
         <v>464.5362854813463</v>
@@ -34238,7 +34238,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34278,10 +34278,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
         <v>45.03122946298631</v>
@@ -34290,10 +34290,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
         <v>234.725964217132</v>
@@ -34302,7 +34302,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34314,13 +34314,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
         <v>34.18755300444946</v>
@@ -34378,13 +34378,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647497</v>
@@ -34399,7 +34399,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34454,7 +34454,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
         <v>464.5362854813463</v>
@@ -34475,7 +34475,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34515,10 +34515,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
         <v>45.03122946298631</v>
@@ -34527,10 +34527,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
         <v>234.725964217132</v>
@@ -34539,7 +34539,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34551,13 +34551,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
-        <v>392.9827086369143</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35413,25 +35413,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>396.5288765389624</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>288.1533596602009</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515205991</v>
       </c>
       <c r="P13" t="n">
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35650,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>719.1111722694825</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>151.0887195044822</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>517.2944394146849</v>
+        <v>611.3621191110703</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415063</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36130,19 +36130,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>105.0161437217609</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>419.0504083262146</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36285,7 +36285,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056037</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36367,19 +36367,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>217.7374127765125</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>451.3528906879716</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36522,7 +36522,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056037</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109047</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>94.57074316089698</v>
+        <v>163.9999561239171</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36759,7 +36759,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056037</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36841,19 +36841,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>484.1472274914425</v>
       </c>
       <c r="N30" t="n">
-        <v>756.532252314524</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799339</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056037</v>
@@ -37008,7 +37008,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37078,19 +37078,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>369.5547984453861</v>
       </c>
       <c r="N33" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
-        <v>32.00833735803128</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.702428529917</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056037</v>
@@ -37245,7 +37245,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37315,19 +37315,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>94.57074316089692</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>552.6794410518484</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
@@ -37470,7 +37470,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056037</v>
@@ -37482,7 +37482,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37552,19 +37552,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N39" t="n">
-        <v>457.8568256037532</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>32.00833735803128</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.214186879935</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056037</v>
@@ -37719,7 +37719,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37789,19 +37789,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>562.8396626586942</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523295</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
@@ -37944,19 +37944,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520608</v>
       </c>
       <c r="P43" t="n">
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38026,19 +38026,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970350042</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>526.9295015768298</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523295</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
@@ -38181,7 +38181,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056037</v>
@@ -38193,7 +38193,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2084967.651894209</v>
+        <v>2160497.321559013</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>979799.8819385115</v>
+        <v>697772.8051751184</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>326.210046679834</v>
       </c>
       <c r="X2" t="n">
-        <v>352.7786754274493</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -795,7 +797,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>232.800587149425</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -820,16 +822,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>20.3298104615455</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>159.9479264102629</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>46.33048760721872</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>2.18624263408637</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>146.6850513083903</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>25.42273711523548</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>205.8216189442608</v>
+        <v>344.7067519330207</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>163.2123634091011</v>
       </c>
       <c r="W10" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>109.6778012403076</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>190.6405752120342</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>17.27681408052457</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>29.18937547121108</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,10 +2010,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -2020,7 +2022,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>101.1426547140132</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>133.14414962309</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2096,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>12.22863286320265</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>139.153727875004</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>54.14970046798282</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>224.8952567231525</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.21256991826632</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>231.4883367804543</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2807,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113193</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>125.8203713301432</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2959,13 +2961,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>83.53293045534133</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3082,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>23.54872654978215</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>30.99167527317491</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3433,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>43.17352848917044</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3481,7 +3483,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>63.17623246397515</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>41.88171928086645</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151921</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>224.8952567231588</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>71.87009689483865</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>131.3256137699875</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>135.1975152812759</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1791.109440255352</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4328,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.451536646714</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2147.451536646714</v>
+        <v>2136.437816206488</v>
       </c>
       <c r="X2" t="n">
-        <v>1791.109440255352</v>
+        <v>1762.972057945408</v>
       </c>
       <c r="Y2" t="n">
-        <v>1791.109440255352</v>
+        <v>1762.972057945408</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,16 +4409,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4443,13 +4445,13 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>243.4143268306406</v>
+        <v>566.5654221758658</v>
       </c>
       <c r="C4" t="n">
-        <v>74.47814390273365</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="D4" t="n">
-        <v>74.47814390273365</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E4" t="n">
-        <v>74.47814390273365</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>74.47814390273365</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>566.5654221758658</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286579</v>
+        <v>566.5654221758658</v>
       </c>
       <c r="U4" t="n">
-        <v>471.4038777286579</v>
+        <v>566.5654221758658</v>
       </c>
       <c r="V4" t="n">
-        <v>471.4038777286579</v>
+        <v>566.5654221758658</v>
       </c>
       <c r="W4" t="n">
-        <v>471.4038777286579</v>
+        <v>566.5654221758658</v>
       </c>
       <c r="X4" t="n">
-        <v>243.4143268306406</v>
+        <v>566.5654221758658</v>
       </c>
       <c r="Y4" t="n">
-        <v>243.4143268306406</v>
+        <v>566.5654221758658</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1637.643464250441</v>
+        <v>490.5728759019127</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>121.610358961501</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>121.610358961501</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>121.610358961501</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>114.6648582122975</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>100.7414541508884</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>100.7414541508884</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2694.940765125206</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2363.877877781635</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2011.109222511521</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>1637.643464250441</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y5" t="n">
-        <v>1637.643464250441</v>
+        <v>877.1727159660345</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.1394333084169</v>
+        <v>229.739153672332</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>229.739153672332</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>79.62251425999625</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.62251425999625</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.62251425999625</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.62251425999625</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>229.739153672332</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>229.739153672332</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>229.739153672332</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084169</v>
+        <v>229.739153672332</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1982.008090792599</v>
+        <v>2017.897565358469</v>
       </c>
       <c r="X8" t="n">
-        <v>1982.008090792599</v>
+        <v>2017.897565358469</v>
       </c>
       <c r="Y8" t="n">
-        <v>1591.868758816787</v>
+        <v>1627.758233382657</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4896,10 +4898,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610023</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V10" t="n">
-        <v>184.2708856551154</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="11">
@@ -5018,28 +5020,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514082</v>
@@ -5048,40 +5050,40 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5106,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>904.39166832551</v>
+        <v>635.6609815769497</v>
       </c>
       <c r="M12" t="n">
-        <v>1224.726987855212</v>
+        <v>1404.029127969411</v>
       </c>
       <c r="N12" t="n">
-        <v>1569.24764349283</v>
+        <v>2208.440706233562</v>
       </c>
       <c r="O12" t="n">
-        <v>1818.001057576792</v>
+        <v>2487.980771452259</v>
       </c>
       <c r="P12" t="n">
-        <v>2338.301679312539</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>245.1301850426789</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="C13" t="n">
-        <v>245.1301850426789</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="D13" t="n">
-        <v>245.1301850426789</v>
+        <v>355.9158428611715</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>208.0027492787784</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>208.0027492787784</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>208.0027492787784</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>208.0027492787784</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5212,37 +5214,37 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771457</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655701</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286096</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X13" t="n">
-        <v>437.6964226305922</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y13" t="n">
-        <v>245.1301850426789</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,31 +5263,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5294,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5321,7 +5323,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5358,25 +5360,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>388.8958536704856</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>618.8589595388348</v>
+        <v>642.5710836830572</v>
       </c>
       <c r="M15" t="n">
-        <v>1330.779020085623</v>
+        <v>1357.551052309181</v>
       </c>
       <c r="N15" t="n">
-        <v>2135.190598349773</v>
+        <v>1702.071707946799</v>
       </c>
       <c r="O15" t="n">
-        <v>2135.190598349773</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>562.0930141766539</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>411.9763747643182</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>411.9763747643182</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.0864272664078</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>731.0291971045608</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>388.8958536704856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L18" t="n">
-        <v>994.1443515904452</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M18" t="n">
-        <v>1314.479671120147</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N18" t="n">
-        <v>1659.000326757765</v>
+        <v>1221.963989254138</v>
       </c>
       <c r="O18" t="n">
-        <v>2328.464088060424</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>994.3109288932103</v>
+        <v>881.753191430675</v>
       </c>
       <c r="C19" t="n">
-        <v>825.3747459653034</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D19" t="n">
-        <v>675.2581065529677</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705745</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705745</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1396.75197286698</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1396.75197286698</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1396.75197286698</v>
+        <v>1364.427230534579</v>
       </c>
       <c r="V19" t="n">
-        <v>1396.75197286698</v>
+        <v>1109.742742328692</v>
       </c>
       <c r="W19" t="n">
-        <v>1396.75197286698</v>
+        <v>1109.742742328692</v>
       </c>
       <c r="X19" t="n">
-        <v>1396.75197286698</v>
+        <v>881.753191430675</v>
       </c>
       <c r="Y19" t="n">
-        <v>1175.95939372345</v>
+        <v>881.753191430675</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571611</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L21" t="n">
-        <v>674.4285624571611</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.288466700114</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="N21" t="n">
-        <v>1433.809122337731</v>
+        <v>1221.956019007155</v>
       </c>
       <c r="O21" t="n">
-        <v>2103.272883640391</v>
+        <v>1891.419780309814</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>576.0756695821905</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>576.0756695821905</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>757.7241344124302</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>757.7241344124302</v>
       </c>
     </row>
     <row r="23">
@@ -5978,22 +5980,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6002,16 +6004,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6023,7 +6025,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
@@ -6054,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>263.5382936126483</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>877.4353633695372</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1645.803509761999</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="N24" t="n">
-        <v>2092.642871543091</v>
+        <v>1725.605268627776</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.642871543091</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028589</v>
+        <v>4037.957270257084</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028589</v>
+        <v>3869.021087329177</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028589</v>
+        <v>3869.021087329177</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028589</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028589</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>4695.08280243674</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>4695.08280243674</v>
       </c>
       <c r="U25" t="n">
-        <v>1271.749344574921</v>
+        <v>4695.08280243674</v>
       </c>
       <c r="V25" t="n">
-        <v>1017.064856369034</v>
+        <v>4440.398314230853</v>
       </c>
       <c r="W25" t="n">
-        <v>727.647686332073</v>
+        <v>4440.398314230853</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>4440.398314230853</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905256</v>
+        <v>4219.605735087323</v>
       </c>
     </row>
     <row r="26">
@@ -6203,22 +6205,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6227,25 +6229,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>425.8982501753262</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>1039.795319932215</v>
+        <v>732.6458081222347</v>
       </c>
       <c r="M27" t="n">
-        <v>1808.163466324677</v>
+        <v>1501.013954514696</v>
       </c>
       <c r="N27" t="n">
-        <v>1808.163466324677</v>
+        <v>2305.425532778847</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.6350999123426</v>
+        <v>310.8124359217951</v>
       </c>
       <c r="C28" t="n">
-        <v>247.6350999123426</v>
+        <v>141.8762529938882</v>
       </c>
       <c r="D28" t="n">
-        <v>247.6350999123426</v>
+        <v>141.8762529938882</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>141.8762529938882</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>141.8762529938882</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6385,13 +6387,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247865</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>730.3091390162467</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>475.6246508103599</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W28" t="n">
-        <v>475.6246508103599</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X28" t="n">
-        <v>247.6350999123426</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="Y28" t="n">
-        <v>247.6350999123426</v>
+        <v>492.4609007520348</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6476,37 +6478,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M30" t="n">
-        <v>1767.631387430578</v>
+        <v>904.39166832551</v>
       </c>
       <c r="N30" t="n">
-        <v>2112.152043068196</v>
+        <v>1708.803246589661</v>
       </c>
       <c r="O30" t="n">
-        <v>2360.905457152158</v>
+        <v>2378.26700789232</v>
       </c>
       <c r="P30" t="n">
-        <v>2543.548934765509</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4244.714639971541</v>
+        <v>4073.011257337221</v>
       </c>
       <c r="C31" t="n">
-        <v>4075.778457043634</v>
+        <v>3904.075074409314</v>
       </c>
       <c r="D31" t="n">
-        <v>3925.661817631299</v>
+        <v>3753.958434996978</v>
       </c>
       <c r="E31" t="n">
-        <v>3777.748724048905</v>
+        <v>3606.045341414585</v>
       </c>
       <c r="F31" t="n">
-        <v>3777.748724048905</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G31" t="n">
-        <v>3609.573402368726</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916669</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916669</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380579</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625191</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L31" t="n">
         <v>3869.435535636325</v>
@@ -6646,25 +6648,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929845</v>
+        <v>4776.477875584655</v>
       </c>
       <c r="T31" t="n">
-        <v>4660.934562929845</v>
+        <v>4776.477875584655</v>
       </c>
       <c r="U31" t="n">
-        <v>4371.805924143403</v>
+        <v>4776.477875584655</v>
       </c>
       <c r="V31" t="n">
-        <v>4371.805924143403</v>
+        <v>4521.793387378768</v>
       </c>
       <c r="W31" t="n">
-        <v>4371.805924143403</v>
+        <v>4521.793387378768</v>
       </c>
       <c r="X31" t="n">
-        <v>4371.805924143403</v>
+        <v>4293.803836480751</v>
       </c>
       <c r="Y31" t="n">
-        <v>4371.805924143403</v>
+        <v>4073.011257337221</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6713,37 +6715,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>263.5382936126483</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>263.5382936126483</v>
+        <v>779.5615433385053</v>
       </c>
       <c r="M33" t="n">
-        <v>629.3975440735805</v>
+        <v>967.0546881959771</v>
       </c>
       <c r="N33" t="n">
-        <v>1433.809122337731</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O33" t="n">
-        <v>2103.272883640391</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3651.878169319104</v>
+        <v>3946.383537937097</v>
       </c>
       <c r="C34" t="n">
-        <v>3482.941986391198</v>
+        <v>3777.44735500919</v>
       </c>
       <c r="D34" t="n">
-        <v>3482.941986391198</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="E34" t="n">
-        <v>3482.941986391198</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="F34" t="n">
-        <v>3482.941986391198</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.15539391667</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.15539391667</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.15539391667</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.53808638058</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431058</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436455</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042138</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014294</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014294</v>
+        <v>4718.474747077961</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014294</v>
+        <v>4718.474747077961</v>
       </c>
       <c r="U34" t="n">
-        <v>4571.725934227852</v>
+        <v>4718.474747077961</v>
       </c>
       <c r="V34" t="n">
-        <v>4571.725934227852</v>
+        <v>4463.790258872074</v>
       </c>
       <c r="W34" t="n">
-        <v>4282.308764190891</v>
+        <v>4174.373088835114</v>
       </c>
       <c r="X34" t="n">
-        <v>4054.319213292874</v>
+        <v>3946.383537937097</v>
       </c>
       <c r="Y34" t="n">
-        <v>3833.526634149344</v>
+        <v>3946.383537937097</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571611</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>1221.581209098491</v>
+        <v>779.5615433385053</v>
       </c>
       <c r="M36" t="n">
-        <v>1541.916528628193</v>
+        <v>1099.896862868207</v>
       </c>
       <c r="N36" t="n">
-        <v>1886.437184265811</v>
+        <v>1476.356849144414</v>
       </c>
       <c r="O36" t="n">
-        <v>2135.190598349773</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3570.689985294729</v>
+        <v>3911.60756598123</v>
       </c>
       <c r="C37" t="n">
-        <v>3570.689985294729</v>
+        <v>3911.60756598123</v>
       </c>
       <c r="D37" t="n">
-        <v>3570.689985294729</v>
+        <v>3911.60756598123</v>
       </c>
       <c r="E37" t="n">
-        <v>3570.689985294729</v>
+        <v>3911.60756598123</v>
       </c>
       <c r="F37" t="n">
-        <v>3570.689985294729</v>
+        <v>3764.71761848332</v>
       </c>
       <c r="G37" t="n">
-        <v>3570.689985294729</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294729</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431058</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436455</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042138</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576119</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.859459491672</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T37" t="n">
-        <v>4326.074044281178</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U37" t="n">
-        <v>4036.945405494736</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="V37" t="n">
-        <v>3973.131029268499</v>
+        <v>4093.25603081147</v>
       </c>
       <c r="W37" t="n">
-        <v>3973.131029268499</v>
+        <v>4093.25603081147</v>
       </c>
       <c r="X37" t="n">
-        <v>3973.131029268499</v>
+        <v>4093.25603081147</v>
       </c>
       <c r="Y37" t="n">
-        <v>3752.338450124969</v>
+        <v>4093.25603081147</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7168,16 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7187,7 +7189,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899128</v>
@@ -7254,22 +7256,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277035</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341677</v>
+        <v>779.5615433385053</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1099.896862868207</v>
       </c>
       <c r="N39" t="n">
-        <v>2107.32270539078</v>
+        <v>1702.071707946799</v>
       </c>
       <c r="O39" t="n">
-        <v>2386.862770609478</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P39" t="n">
-        <v>2591.885251391687</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>289.9398668627127</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>289.9398668627127</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028587</v>
@@ -7330,16 +7332,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>471.5883316929525</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>263.5382936126483</v>
+        <v>246.2867756623457</v>
       </c>
       <c r="L42" t="n">
-        <v>263.5382936126483</v>
+        <v>860.1838454192343</v>
       </c>
       <c r="M42" t="n">
-        <v>570.8584268926101</v>
+        <v>1180.519164948936</v>
       </c>
       <c r="N42" t="n">
-        <v>1128.069692924717</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3459.155393916671</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C43" t="n">
-        <v>3459.155393916671</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D43" t="n">
-        <v>3459.155393916671</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916671</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916671</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916671</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916671</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916671</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380581</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625192</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636322</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403505</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431053</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014294</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014294</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>4860.854573014294</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U43" t="n">
-        <v>4633.687647031305</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V43" t="n">
-        <v>4379.003158825419</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W43" t="n">
-        <v>4089.585988788458</v>
+        <v>898.5039869983195</v>
       </c>
       <c r="X43" t="n">
-        <v>3861.596437890441</v>
+        <v>670.5144361003022</v>
       </c>
       <c r="Y43" t="n">
-        <v>3640.803858746911</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7645,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7661,16 +7663,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7722,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571611</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L45" t="n">
-        <v>1196.088769018223</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M45" t="n">
-        <v>1503.408902298184</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N45" t="n">
-        <v>1833.271529962217</v>
+        <v>2191.638684195447</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>415.8104215925219</v>
+        <v>674.6944526764913</v>
       </c>
       <c r="C46" t="n">
-        <v>415.8104215925219</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="D46" t="n">
-        <v>415.8104215925219</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E46" t="n">
-        <v>415.8104215925219</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1366.264135436703</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557903</v>
+        <v>1366.264135436703</v>
       </c>
       <c r="U46" t="n">
-        <v>1362.353123809139</v>
+        <v>1077.135496650261</v>
       </c>
       <c r="V46" t="n">
-        <v>1107.668635603252</v>
+        <v>1077.135496650261</v>
       </c>
       <c r="W46" t="n">
-        <v>818.2514655662918</v>
+        <v>1077.135496650261</v>
       </c>
       <c r="X46" t="n">
-        <v>818.2514655662918</v>
+        <v>1077.135496650261</v>
       </c>
       <c r="Y46" t="n">
-        <v>597.4588864227617</v>
+        <v>856.3429175067311</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8544,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8781,16 +8783,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9018,7 +9020,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9258,13 +9260,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,13 +9482,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9495,13 +9497,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>234.3654817862634</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>118.1583172899585</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,13 +9965,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,7 +10199,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10206,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,16 +10427,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>331.5210489295656</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10446,10 +10448,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10686,7 +10688,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298194</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,28 +10904,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>275.0628458732916</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11142,13 +11144,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>229.6450892606812</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11306,7 +11308,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11379,25 +11381,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>277.6717966208054</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>280.8037230959364</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0.7414442239643506</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>27.94407814006064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,22 +23655,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>149.216754382853</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>192.3581855871782</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>96.77815526959002</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>153.0932027754874</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23975,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>136.3868401550097</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24381,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>143.7711095156204</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>61.34209567542487</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>122.2809985451113</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>54.749015618123</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>54.01160885179408</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24886,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>114.3878795282619</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>142.9448419135954</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>166.9291347104283</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25321,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>123.3200399742071</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>188.9614108598529</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>106.7337537373459</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25566,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25597,16 +25599,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>61.34209567541856</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>146.7145564572562</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,19 +26073,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>66.59519621361571</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>151.0398371173015</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>860263.9314229597</v>
+        <v>860263.9314229599</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229597</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>860263.93142296</v>
+        <v>860263.9314229599</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>860263.9314229597</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
   </sheetData>
@@ -26314,43 +26316,43 @@
         <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117846</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="F2" t="n">
         <v>508337.7776590217</v>
       </c>
       <c r="G2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590219</v>
       </c>
       <c r="H2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="I2" t="n">
         <v>508337.7776590217</v>
       </c>
       <c r="J2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="K2" t="n">
         <v>508337.7776590217</v>
       </c>
       <c r="L2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="M2" t="n">
         <v>508337.7776590217</v>
       </c>
       <c r="N2" t="n">
-        <v>508337.777659022</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="O2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="P2" t="n">
         <v>508337.7776590216</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,37 +26426,37 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758692</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758697</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758698</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758698</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758695</v>
@@ -26473,22 +26475,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26497,19 +26499,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-278208.9460467886</v>
+        <v>-278208.9460467887</v>
       </c>
       <c r="C6" t="n">
-        <v>311758.9331677562</v>
+        <v>311758.9331677556</v>
       </c>
       <c r="D6" t="n">
-        <v>311758.9331677559</v>
+        <v>311758.9331677561</v>
       </c>
       <c r="E6" t="n">
         <v>-109597.378457167</v>
@@ -26534,16 +26536,16 @@
         <v>415562.6580197292</v>
       </c>
       <c r="G6" t="n">
+        <v>415562.6580197294</v>
+      </c>
+      <c r="H6" t="n">
+        <v>415562.6580197291</v>
+      </c>
+      <c r="I6" t="n">
         <v>415562.6580197292</v>
       </c>
-      <c r="H6" t="n">
-        <v>415562.6580197292</v>
-      </c>
-      <c r="I6" t="n">
-        <v>415562.6580197291</v>
-      </c>
       <c r="J6" t="n">
-        <v>239139.4388271362</v>
+        <v>239139.438827136</v>
       </c>
       <c r="K6" t="n">
         <v>415562.6580197292</v>
@@ -26555,13 +26557,13 @@
         <v>280761.6427858921</v>
       </c>
       <c r="N6" t="n">
-        <v>415562.6580197294</v>
+        <v>415562.6580197291</v>
       </c>
       <c r="O6" t="n">
         <v>415562.6580197292</v>
       </c>
       <c r="P6" t="n">
-        <v>415562.658019729</v>
+        <v>415562.6580197291</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26808,7 +26810,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26817,19 +26819,19 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>23.03092203757905</v>
       </c>
       <c r="X2" t="n">
-        <v>16.95242525101975</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27540,16 +27542,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>146.9799917975054</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>52.19761253975599</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27600,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>105.6008286376425</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>249.0379248742029</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>20.56176979023752</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27791,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>130.7481517265597</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27816,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27913,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>143.4193497731522</v>
+        <v>4.534216784392356</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28020,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28055,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>88.92527991472693</v>
       </c>
       <c r="W10" t="n">
-        <v>157.4983735401876</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,25 +31120,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576413</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31367,7 +31369,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>87.78329382423996</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,37 +31840,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>200.8412512633711</v>
       </c>
       <c r="Q12" t="n">
-        <v>218.0578460103733</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,37 +32077,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>395.5401424415009</v>
+        <v>398.6309586832543</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,31 +32314,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>379.0761535874854</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>340.85460907735</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32461,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,37 +32475,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>95.47937849823302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32579,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,40 +32785,40 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>130.2163645743972</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,10 +32937,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,37 +32949,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946974</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>37.37615808569751</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>90.98457014058334</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
@@ -33053,7 +33055,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,37 +33186,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,40 +33259,40 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>160.5761976634609</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>293.7457155220017</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,37 +33423,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,40 +33496,40 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>45.98376861740451</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,37 +33660,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>320.3934755282634</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>32.26195013998864</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33764,7 +33766,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,37 +33897,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33970,40 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>171.9901114440528</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,37 +34134,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>168.0827022858024</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34238,7 +34240,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,37 +34371,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34475,7 +34477,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>66.86684384904086</v>
       </c>
       <c r="Q12" t="n">
-        <v>288.1533596602009</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515205991</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>719.1111722694825</v>
+        <v>722.2019885112359</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>611.3621191110703</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>592.1206839096351</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>419.0504083262146</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>441.4588967177881</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004663</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>451.3528906879716</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>381.4824394066823</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>163.9999561239171</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594837</v>
+        <v>323.2705356641683</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594837</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>484.1472274914425</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>159.7713081076714</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799339</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>369.5547984453861</v>
+        <v>189.3870150075472</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.702428529917</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>552.6794410518484</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>380.2626124002089</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004663</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415666</v>
+        <v>608.2574192713046</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>32.00833735803128</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>562.8396626586942</v>
+        <v>516.0833645460226</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209233</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.237351520608</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>526.9295015768298</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411083</v>
+        <v>138.207478651492</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2160497.321559013</v>
+        <v>2153480.306667301</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>697772.8051751184</v>
+        <v>536065.4416823948</v>
       </c>
     </row>
     <row r="8">
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>40.30863376004246</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>326.210046679834</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -794,10 +794,10 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V3" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>159.9479264102629</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>80.88877949312959</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>20.57102980333316</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>46.33048760721872</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>25.42273711523548</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>25.31590541686258</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>89.35257358314648</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>344.7067519330207</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1299,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>133.9566202902066</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>163.2123634091011</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>115.526976800218</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>109.6778012403076</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>70.99556330749662</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>17.27681408052457</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2019,7 +2019,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>15.72141320780815</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>133.14414962309</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,19 +2244,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>12.22863286320265</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>187.8326399421087</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>54.14970046798282</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>44.21256991826632</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>224.8952567231525</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>83.53293045534133</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>30.99167527317491</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>176.439138399199</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>43.17352848917044</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>41.88171928086645</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>26.15603929387842</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.87009689483865</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>131.3256137699875</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>234.1231749377856</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1376.372217881286</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>1376.372217881286</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2656.433299341412</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2480.255811655582</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2480.255811655582</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2480.255811655582</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>2149.192924312011</v>
       </c>
       <c r="W2" t="n">
-        <v>2136.437816206488</v>
+        <v>1796.424269041897</v>
       </c>
       <c r="X2" t="n">
-        <v>1762.972057945408</v>
+        <v>1422.958510780817</v>
       </c>
       <c r="Y2" t="n">
-        <v>1762.972057945408</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>566.5654221758658</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C4" t="n">
-        <v>397.6292392479589</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D4" t="n">
-        <v>247.5125998356232</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>566.5654221758658</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>566.5654221758658</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>566.5654221758658</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>566.5654221758658</v>
+        <v>617.0062271882081</v>
       </c>
       <c r="W4" t="n">
-        <v>566.5654221758658</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="X4" t="n">
-        <v>566.5654221758658</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y4" t="n">
-        <v>566.5654221758658</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>490.5728759019127</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="C5" t="n">
-        <v>121.610358961501</v>
+        <v>825.7212517577275</v>
       </c>
       <c r="D5" t="n">
-        <v>121.610358961501</v>
+        <v>467.455553150977</v>
       </c>
       <c r="E5" t="n">
-        <v>121.610358961501</v>
+        <v>81.66730055273274</v>
       </c>
       <c r="F5" t="n">
-        <v>114.6648582122975</v>
+        <v>74.72179980352927</v>
       </c>
       <c r="G5" t="n">
-        <v>100.7414541508884</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>100.7414541508884</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>1640.777806202926</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1267.312047941846</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>877.1727159660345</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4655,7 +4655,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>229.739153672332</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C7" t="n">
-        <v>229.739153672332</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D7" t="n">
-        <v>79.62251425999625</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E7" t="n">
-        <v>79.62251425999625</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="F7" t="n">
-        <v>79.62251425999625</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="G7" t="n">
-        <v>79.62251425999625</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>229.739153672332</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>229.739153672332</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>229.739153672332</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>229.739153672332</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1241.158393318536</v>
+        <v>1372.955922978508</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>1003.993406038096</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>645.7277074313456</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224075</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W8" t="n">
-        <v>2017.897565358469</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>2017.897565358469</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y8" t="n">
-        <v>1627.758233382657</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>550.7989714776633</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>403.9090239797529</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>234.9092237180853</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>365.6939024587809</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>365.6939024587809</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>200.8329293182748</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>200.8329293182748</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>200.8329293182748</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>200.8329293182748</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K12" t="n">
-        <v>388.8958536704856</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="L12" t="n">
-        <v>635.6609815769497</v>
+        <v>711.1141612171748</v>
       </c>
       <c r="M12" t="n">
-        <v>1404.029127969411</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N12" t="n">
-        <v>2208.440706233562</v>
+        <v>2283.893885873787</v>
       </c>
       <c r="O12" t="n">
-        <v>2487.980771452259</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>506.0324822735073</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C13" t="n">
-        <v>506.0324822735073</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D13" t="n">
-        <v>355.9158428611715</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="E13" t="n">
-        <v>208.0027492787784</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>208.0027492787784</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>208.0027492787784</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>208.0027492787784</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150548</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X13" t="n">
-        <v>726.8250614170374</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y13" t="n">
-        <v>506.0324822735073</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="14">
@@ -5275,34 +5275,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5314,13 +5314,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="L15" t="n">
-        <v>642.5710836830572</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="M15" t="n">
-        <v>1357.551052309181</v>
+        <v>865.5852378527476</v>
       </c>
       <c r="N15" t="n">
-        <v>1702.071707946799</v>
+        <v>1210.105893490366</v>
       </c>
       <c r="O15" t="n">
-        <v>2371.535469249458</v>
+        <v>1879.569654793025</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2399.870276528773</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>731.0291971045608</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="C16" t="n">
-        <v>562.0930141766539</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9763747643182</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9763747643182</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F16" t="n">
-        <v>265.0864272664078</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>1020.446367141521</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W16" t="n">
-        <v>731.0291971045608</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X16" t="n">
-        <v>731.0291971045608</v>
+        <v>816.3222213695508</v>
       </c>
       <c r="Y16" t="n">
-        <v>731.0291971045608</v>
+        <v>595.5296422260207</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5506,40 +5506,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028584</v>
+        <v>836.4717212750122</v>
       </c>
       <c r="M18" t="n">
-        <v>417.5524109899876</v>
+        <v>1604.839867667474</v>
       </c>
       <c r="N18" t="n">
-        <v>1221.963989254138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>881.753191430675</v>
+        <v>576.0756695821912</v>
       </c>
       <c r="C19" t="n">
-        <v>712.8170085027681</v>
+        <v>576.0756695821912</v>
       </c>
       <c r="D19" t="n">
-        <v>562.7003690904323</v>
+        <v>576.0756695821912</v>
       </c>
       <c r="E19" t="n">
-        <v>562.7003690904323</v>
+        <v>428.162575999798</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>281.2726285018877</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>113.0973068217083</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>1364.427230534579</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V19" t="n">
-        <v>1109.742742328692</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="W19" t="n">
-        <v>1109.742742328692</v>
+        <v>985.7136853104482</v>
       </c>
       <c r="X19" t="n">
-        <v>881.753191430675</v>
+        <v>757.7241344124309</v>
       </c>
       <c r="Y19" t="n">
-        <v>881.753191430675</v>
+        <v>757.7241344124309</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K21" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L21" t="n">
-        <v>877.4353633695368</v>
+        <v>1122.004430061688</v>
       </c>
       <c r="M21" t="n">
-        <v>877.4353633695368</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>1221.956019007155</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>1891.419780309814</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>576.0756695821905</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C22" t="n">
-        <v>576.0756695821905</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D22" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1309.18633122244</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1085.400916011945</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347408</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="V22" t="n">
-        <v>1275.130855347408</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W22" t="n">
-        <v>985.7136853104475</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X22" t="n">
-        <v>757.7241344124302</v>
+        <v>278.8655562905256</v>
       </c>
       <c r="Y22" t="n">
-        <v>757.7241344124302</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="23">
@@ -5968,67 +5968,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>921.1936903636249</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>1725.605268627776</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4037.957270257084</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C25" t="n">
-        <v>3869.021087329177</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D25" t="n">
-        <v>3869.021087329177</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E25" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F25" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>4695.08280243674</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
-        <v>4695.08280243674</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>4695.08280243674</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>4440.398314230853</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>4440.398314230853</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>4440.398314230853</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y25" t="n">
-        <v>4219.605735087323</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,34 +6211,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6250,7 +6250,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L27" t="n">
-        <v>732.6458081222347</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.013954514696</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>2305.425532778847</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>310.8124359217951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>141.8762529938882</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>141.8762529938882</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>141.8762529938882</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>141.8762529938882</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687013</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V28" t="n">
-        <v>1009.867621687013</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W28" t="n">
-        <v>720.4504516500522</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X28" t="n">
-        <v>492.4609007520348</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y28" t="n">
-        <v>492.4609007520348</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>904.39166832551</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>904.39166832551</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
-        <v>1708.803246589661</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>2378.26700789232</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4073.011257337221</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>3904.075074409314</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>3753.958434996978</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>3606.045341414585</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4776.477875584655</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T31" t="n">
-        <v>4776.477875584655</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>4776.477875584655</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>4521.793387378768</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>4521.793387378768</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>4293.803836480751</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>4073.011257337221</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6679,46 +6679,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6779,22 +6779,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>779.5615433385053</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>967.0546881959771</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1771.466266460128</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3946.383537937097</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C34" t="n">
-        <v>3777.44735500919</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D34" t="n">
-        <v>3627.330715596854</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E34" t="n">
-        <v>3627.330715596854</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F34" t="n">
-        <v>3627.330715596854</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4718.474747077961</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>4718.474747077961</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U34" t="n">
-        <v>4718.474747077961</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V34" t="n">
-        <v>4463.790258872074</v>
+        <v>985.8343999908507</v>
       </c>
       <c r="W34" t="n">
-        <v>4174.373088835114</v>
+        <v>696.41722995389</v>
       </c>
       <c r="X34" t="n">
-        <v>3946.383537937097</v>
+        <v>468.4276790558727</v>
       </c>
       <c r="Y34" t="n">
-        <v>3946.383537937097</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,13 +6928,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6955,13 +6955,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>779.5615433385053</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>1099.896862868207</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>1476.356849144414</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>2145.820610447073</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3911.60756598123</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>3911.60756598123</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>3911.60756598123</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>3911.60756598123</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>3764.71761848332</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4637.069157803799</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>4347.940519017357</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>4093.25603081147</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>4093.25603081147</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>4093.25603081147</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>4093.25603081147</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,40 +7165,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>779.5615433385053</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1099.896862868207</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.071707946799</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="O39" t="n">
-        <v>2371.535469249458</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P39" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>289.9398668627127</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C40" t="n">
-        <v>289.9398668627127</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D40" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E40" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F40" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V40" t="n">
-        <v>1209.787631771461</v>
+        <v>648.5868613273557</v>
       </c>
       <c r="W40" t="n">
-        <v>920.3704617344999</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="X40" t="n">
-        <v>692.3809108364826</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y40" t="n">
-        <v>471.5883316929525</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7405,7 +7405,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7429,7 +7429,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>246.2867756623457</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>860.1838454192343</v>
+        <v>755.6843634038122</v>
       </c>
       <c r="M42" t="n">
-        <v>1180.519164948936</v>
+        <v>1524.052509796274</v>
       </c>
       <c r="N42" t="n">
-        <v>1691.441695849499</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="O42" t="n">
-        <v>2360.905457152158</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P42" t="n">
-        <v>2543.548934765509</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U43" t="n">
-        <v>1187.92115703528</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>1187.92115703528</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>898.5039869983195</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>670.5144361003022</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,40 +7633,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>388.8958536704856</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L45" t="n">
-        <v>618.8589595388348</v>
+        <v>802.0403666355641</v>
       </c>
       <c r="M45" t="n">
-        <v>1387.227105931296</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N45" t="n">
-        <v>2191.638684195447</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O45" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>674.6944526764913</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>505.7582697485844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1366.264135436703</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1366.264135436703</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>1077.135496650261</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V46" t="n">
-        <v>1077.135496650261</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W46" t="n">
-        <v>1077.135496650261</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>1077.135496650261</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>856.3429175067311</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,10 +8771,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8783,16 +8783,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,10 +9008,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9260,13 +9260,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,28 +9482,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>234.3654817862634</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,19 +9722,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9968,13 +9968,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10199,19 +10199,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10436,22 +10436,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>331.5210489295656</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10679,16 +10679,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,16 +10913,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>275.0628458732916</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11153,10 +11153,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11308,7 +11308,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11390,16 +11390,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>280.8037230959364</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>30.90698584635116</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7414442239643506</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>108.8364168744407</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>149.216754382853</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>133.192415159728</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23943,16 +23943,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>153.0932027754874</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>136.3868401550097</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>10.08817004149458</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>143.7711095156204</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>122.2809985451113</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>61.34209567542487</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>114.3878795282619</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,16 +25125,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>166.9291347104283</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>75.69850492462896</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>123.3200399742071</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>106.7337537373459</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>225.9816040299496</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>146.7145564572562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26043,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>66.59519621361571</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>52.39982339880538</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>860263.9314229597</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="13">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117841</v>
+      </c>
+      <c r="C2" t="n">
+        <v>533677.1504117845</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117843</v>
-      </c>
-      <c r="C2" t="n">
-        <v>533677.1504117842</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117845</v>
       </c>
       <c r="E2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="G2" t="n">
-        <v>508337.7776590219</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="H2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="I2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590214</v>
       </c>
       <c r="J2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590214</v>
       </c>
       <c r="K2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590213</v>
       </c>
       <c r="L2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590214</v>
       </c>
       <c r="M2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590213</v>
       </c>
       <c r="N2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590214</v>
       </c>
       <c r="O2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590214</v>
       </c>
       <c r="P2" t="n">
         <v>508337.7776590216</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.1391806191</v>
+      </c>
+      <c r="C4" t="n">
         <v>139059.139180619</v>
       </c>
-      <c r="C4" t="n">
-        <v>139059.1391806191</v>
-      </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758696</v>
+      </c>
+      <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905758694</v>
-      </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758697</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758695</v>
@@ -26447,13 +26447,13 @@
         <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="M4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="N4" t="n">
-        <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758695</v>
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-278208.9460467887</v>
+        <v>-278208.9460467889</v>
       </c>
       <c r="C6" t="n">
-        <v>311758.9331677556</v>
+        <v>311758.9331677561</v>
       </c>
       <c r="D6" t="n">
-        <v>311758.9331677561</v>
+        <v>311758.9331677558</v>
       </c>
       <c r="E6" t="n">
-        <v>-109597.378457167</v>
+        <v>-110571.9697168889</v>
       </c>
       <c r="F6" t="n">
-        <v>415562.6580197292</v>
+        <v>414588.0667600076</v>
       </c>
       <c r="G6" t="n">
-        <v>415562.6580197294</v>
+        <v>414588.0667600074</v>
       </c>
       <c r="H6" t="n">
-        <v>415562.6580197291</v>
+        <v>414588.0667600074</v>
       </c>
       <c r="I6" t="n">
-        <v>415562.6580197292</v>
+        <v>414588.0667600072</v>
       </c>
       <c r="J6" t="n">
-        <v>239139.438827136</v>
+        <v>238164.8475674144</v>
       </c>
       <c r="K6" t="n">
-        <v>415562.6580197292</v>
+        <v>414588.0667600073</v>
       </c>
       <c r="L6" t="n">
-        <v>415562.6580197292</v>
+        <v>414588.0667600073</v>
       </c>
       <c r="M6" t="n">
-        <v>280761.6427858921</v>
+        <v>279787.0515261699</v>
       </c>
       <c r="N6" t="n">
-        <v>415562.6580197291</v>
+        <v>414588.0667600073</v>
       </c>
       <c r="O6" t="n">
-        <v>415562.6580197292</v>
+        <v>414588.0667600073</v>
       </c>
       <c r="P6" t="n">
-        <v>415562.6580197291</v>
+        <v>414588.0667600074</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
+      <c r="L3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,22 +26795,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>14.16976881476925</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27438,10 +27438,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>23.03092203757905</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>52.19761253975599</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27596,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>171.2488638306984</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>393.2131402174618</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>105.6008286376425</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>130.7481517265597</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>19.88405377167442</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>292.5777964891153</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>4.534216784392356</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28019,22 +28019,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>22.21426855158853</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>88.92527991472693</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31138,7 +31138,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>162.4518126576413</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31378,28 +31378,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>132.9984977071302</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>91.84465193776617</v>
       </c>
       <c r="P12" t="n">
-        <v>200.8412512633711</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>398.6309586832543</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>155.8673437717538</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,43 +32311,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>429.757139380893</v>
       </c>
       <c r="O18" t="n">
-        <v>340.85460907735</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,37 +32475,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,40 +32548,40 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>392.6063366508798</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,28 +32785,28 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O24" t="n">
-        <v>130.2163645743972</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,22 +33022,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>90.98457014058334</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,37 +33262,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>293.7457155220017</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,22 +33499,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -33523,13 +33523,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,16 +33675,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,37 +33736,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>32.26195013998864</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,16 +33912,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,22 +33973,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>208.1179754252732</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -34000,10 +34000,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,16 +34149,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647508</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34216,31 +34216,31 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>17.79181538450968</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>168.0827022858024</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,19 +34447,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>353.0329386354462</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34468,16 +34468,16 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307152</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>343.1107267700513</v>
       </c>
       <c r="P12" t="n">
-        <v>66.86684384904086</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>722.2019885112359</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N15" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>225.9628574215814</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>777.7578016411132</v>
       </c>
       <c r="O18" t="n">
-        <v>592.1206839096351</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>441.4588967177881</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O24" t="n">
-        <v>381.4824394066823</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>323.2705356641683</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>159.7713081076714</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>189.3870150075472</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>380.2626124002089</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37560,13 +37560,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>608.2574192713046</v>
+        <v>556.1186376854935</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37800,10 +37800,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>250.0777809080947</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>516.0833645460226</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,16 +38019,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>585.3189041590311</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>138.207478651492</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2153480.306667301</v>
+        <v>2158419.569516334</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>536065.4416823948</v>
+        <v>624310.9859830342</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>117.3399053404218</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.30863376004246</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -794,7 +794,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>80.88877949312959</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>20.57102980333316</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>6.786859782537817</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.31590541686258</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>89.35257358314648</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>71.64540509163452</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>133.9566202902066</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>25.3159054168623</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883384993</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>115.526976800218</v>
+        <v>3.658918749019283</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>70.99556330749662</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>183.1796758466998</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274068</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>36.59669811656369</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>15.72141320780815</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>187.8326399421087</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2298,7 +2298,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>107.9892416131516</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2535,13 +2535,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>224.8952567231525</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151915</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>176.439138399199</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>140.6185963565886</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151915</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>169.8277167599786</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>26.15603929387842</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>122.6519788371597</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>234.1231749377856</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>743.8979228366049</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>325.9341147347918</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2656.433299341412</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2480.255811655582</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2480.255811655582</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2480.255811655582</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2149.192924312011</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1796.424269041897</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>1422.958510780817</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y2" t="n">
-        <v>1422.958510780817</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="3">
@@ -4433,13 +4433,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>617.0062271882081</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>327.5890571512475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323012</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.683768698139</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>825.7212517577275</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>467.455553150977</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>81.66730055273274</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>74.72179980352927</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2635.26498762696</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2635.26498762696</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2635.26498762696</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2304.202100283389</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1951.433445013275</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>1577.967686752195</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.683768698139</v>
+        <v>1187.828354776384</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,19 +4646,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761947</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>377.5443364482878</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>227.4276970359521</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1372.955922978508</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="C8" t="n">
-        <v>1003.993406038096</v>
+        <v>884.2894331389243</v>
       </c>
       <c r="D8" t="n">
-        <v>645.7277074313456</v>
+        <v>526.0237345321739</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>140.2354819339296</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312744</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1759.555763042629</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1759.555763042629</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600564</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>698.7120650600564</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>698.7120650600564</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>550.7989714776633</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>403.9090239797529</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>234.9092237180853</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>702.55736257324</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>702.55736257324</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>702.55736257324</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>702.55736257324</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>702.55736257324</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>702.55736257324</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>702.55736257324</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600564</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5038,55 +5038,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5108,31 +5108,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="L12" t="n">
-        <v>711.1141612171748</v>
+        <v>711.1141612171743</v>
       </c>
       <c r="M12" t="n">
         <v>1479.482307609636</v>
       </c>
       <c r="N12" t="n">
-        <v>2283.893885873787</v>
+        <v>2283.893885873786</v>
       </c>
       <c r="O12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>213.9110074201021</v>
+        <v>247.8029164824581</v>
       </c>
       <c r="C13" t="n">
-        <v>213.9110074201021</v>
+        <v>247.8029164824581</v>
       </c>
       <c r="D13" t="n">
-        <v>213.9110074201021</v>
+        <v>247.8029164824581</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609669</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V13" t="n">
-        <v>731.31772835508</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="W13" t="n">
-        <v>441.9005583181194</v>
+        <v>696.5850465240055</v>
       </c>
       <c r="X13" t="n">
-        <v>213.9110074201021</v>
+        <v>468.5954956259882</v>
       </c>
       <c r="Y13" t="n">
-        <v>213.9110074201021</v>
+        <v>247.8029164824581</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5275,55 +5275,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823788</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="M15" t="n">
-        <v>865.5852378527476</v>
+        <v>629.3975440735813</v>
       </c>
       <c r="N15" t="n">
-        <v>1210.105893490366</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O15" t="n">
-        <v>1879.569654793025</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P15" t="n">
-        <v>2399.870276528773</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C16" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D16" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E16" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>1044.311772267568</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>1044.311772267568</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>816.3222213695508</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>595.5296422260207</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="17">
@@ -5506,40 +5506,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5591,22 +5591,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5746515181233</v>
+        <v>508.1073603047984</v>
       </c>
       <c r="L18" t="n">
-        <v>836.4717212750122</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>1604.839867667474</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N18" t="n">
-        <v>2374.820091292176</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
         <v>2623.573505376138</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>576.0756695821912</v>
+        <v>303.1196361220955</v>
       </c>
       <c r="C19" t="n">
-        <v>576.0756695821912</v>
+        <v>134.1834531941886</v>
       </c>
       <c r="D19" t="n">
-        <v>576.0756695821912</v>
+        <v>134.1834531941886</v>
       </c>
       <c r="E19" t="n">
-        <v>428.162575999798</v>
+        <v>134.1834531941886</v>
       </c>
       <c r="F19" t="n">
-        <v>281.2726285018877</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>113.0973068217083</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>1275.130855347409</v>
+        <v>820.5263570570734</v>
       </c>
       <c r="W19" t="n">
-        <v>985.7136853104482</v>
+        <v>531.1091870201128</v>
       </c>
       <c r="X19" t="n">
-        <v>757.7241344124309</v>
+        <v>303.1196361220955</v>
       </c>
       <c r="Y19" t="n">
-        <v>757.7241344124309</v>
+        <v>303.1196361220955</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155904</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
@@ -5773,31 +5773,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,16 +5828,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>1122.004430061688</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
         <v>1890.372576454149</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1309.18633122244</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1085.400916011945</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>796.2722772255036</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>796.2722772255036</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>506.8551071885429</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>278.8655562905256</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905256</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,13 +6065,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
         <v>1122.004430061687</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028589</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028589</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028589</v>
+        <v>524.8904636260085</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028589</v>
+        <v>524.8904636260085</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028589</v>
+        <v>524.8904636260085</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>356.715141945829</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>206.2971334937723</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028589</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028589</v>
+        <v>675.0071030383442</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6250,7 +6250,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6302,13 +6302,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
         <v>1122.004430061687</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1271.749344574921</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6490,25 +6490,25 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,19 +6539,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K30" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047984</v>
       </c>
       <c r="L30" t="n">
         <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>1890.372576454149</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N30" t="n">
         <v>2623.573505376138</v>
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P31" t="n">
         <v>1460.082827585746</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="32">
@@ -6679,34 +6679,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6721,28 +6721,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,19 +6776,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K33" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047984</v>
       </c>
       <c r="L33" t="n">
         <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1890.372576454149</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N33" t="n">
         <v>2623.573505376138</v>
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>247.6350999123426</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="C34" t="n">
-        <v>247.6350999123426</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D34" t="n">
-        <v>247.6350999123426</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E34" t="n">
-        <v>247.6350999123426</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123426</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P34" t="n">
         <v>1460.082827585746</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>985.8343999908507</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W34" t="n">
-        <v>696.41722995389</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X34" t="n">
-        <v>468.4276790558727</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y34" t="n">
-        <v>247.6350999123426</v>
+        <v>874.2032452352215</v>
       </c>
     </row>
     <row r="35">
@@ -6928,19 +6928,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6961,7 +6961,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7013,10 +7013,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
         <v>508.1073603047985</v>
@@ -7025,7 +7025,7 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>1890.372576454149</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N36" t="n">
         <v>2623.573505376138</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T37" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,19 +7165,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7198,7 +7198,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7250,10 +7250,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
         <v>508.1073603047985</v>
@@ -7262,7 +7262,7 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1890.372576454149</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N39" t="n">
         <v>2440.930027762787</v>
@@ -7289,7 +7289,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>359.1696912903951</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7341,13 +7341,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1327.3731223155</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>1038.244483529058</v>
       </c>
       <c r="V40" t="n">
-        <v>648.5868613273557</v>
+        <v>783.5599953231708</v>
       </c>
       <c r="W40" t="n">
-        <v>359.1696912903951</v>
+        <v>494.1428252862102</v>
       </c>
       <c r="X40" t="n">
-        <v>359.1696912903951</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y40" t="n">
-        <v>359.1696912903951</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="41">
@@ -7414,7 +7414,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,13 +7423,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7496,10 +7496,10 @@
         <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>755.6843634038122</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>1524.052509796274</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N42" t="n">
         <v>2328.464088060424</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>221.1079791745886</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>221.1079791745886</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>221.1079791745886</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>221.1079791745886</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7572,19 +7572,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>221.1079791745886</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7730,16 +7730,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>802.0403666355641</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1570.408513028025</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N45" t="n">
-        <v>2374.820091292176</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
         <v>2623.573505376138</v>
@@ -7809,19 +7809,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P46" t="n">
         <v>1460.082827585746</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>964.1357418247858</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>964.1357418247858</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9257,7 +9257,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9503,7 +9503,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298389</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -11399,7 +11399,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.586375558166765e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>30.90698584635116</v>
+        <v>142.7750438975499</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>108.8364168744407</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>14.74113413690347</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>108.8243499063676</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>133.192415159728</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>10.08817004149458</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>2.430003851120375</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>61.34209567542487</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338579</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633815</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>75.69850492462896</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>77.96605699550619</v>
       </c>
     </row>
     <row r="35">
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338579</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,10 +25566,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>51.71984429841069</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>225.9816040299496</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>22.7690691857715</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>79.43092547709136</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>52.39982339880538</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229597</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229597</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229599</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229597</v>
       </c>
     </row>
     <row r="13">
@@ -26316,43 +26316,43 @@
         <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117846</v>
       </c>
       <c r="E2" t="n">
+        <v>508337.7776590215</v>
+      </c>
+      <c r="F2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="G2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="H2" t="n">
+        <v>508337.7776590215</v>
+      </c>
+      <c r="I2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="K2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="L2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="M2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="N2" t="n">
         <v>508337.7776590218</v>
       </c>
-      <c r="G2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="H2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="I2" t="n">
-        <v>508337.7776590214</v>
-      </c>
-      <c r="J2" t="n">
-        <v>508337.7776590214</v>
-      </c>
-      <c r="K2" t="n">
-        <v>508337.7776590213</v>
-      </c>
-      <c r="L2" t="n">
-        <v>508337.7776590214</v>
-      </c>
-      <c r="M2" t="n">
-        <v>508337.7776590213</v>
-      </c>
-      <c r="N2" t="n">
-        <v>508337.7776590214</v>
-      </c>
       <c r="O2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="P2" t="n">
         <v>508337.7776590216</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="F4" t="n">
+        <v>787.7936905758692</v>
+      </c>
+      <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="G4" t="n">
-        <v>787.7936905758697</v>
-      </c>
       <c r="H4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758695</v>
@@ -26450,16 +26450,16 @@
         <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="N4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="O4" t="n">
-        <v>787.7936905758695</v>
-      </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26475,37 +26475,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871659</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26524,46 +26524,46 @@
         <v>-278208.9460467889</v>
       </c>
       <c r="C6" t="n">
-        <v>311758.9331677561</v>
+        <v>311758.9331677557</v>
       </c>
       <c r="D6" t="n">
-        <v>311758.9331677558</v>
+        <v>311758.9331677562</v>
       </c>
       <c r="E6" t="n">
-        <v>-110571.9697168889</v>
+        <v>-109694.8375831389</v>
       </c>
       <c r="F6" t="n">
-        <v>414588.0667600076</v>
+        <v>415465.198893757</v>
       </c>
       <c r="G6" t="n">
-        <v>414588.0667600074</v>
+        <v>415465.198893757</v>
       </c>
       <c r="H6" t="n">
-        <v>414588.0667600074</v>
+        <v>415465.1988937567</v>
       </c>
       <c r="I6" t="n">
-        <v>414588.0667600072</v>
+        <v>415465.1988937569</v>
       </c>
       <c r="J6" t="n">
-        <v>238164.8475674144</v>
+        <v>239041.979701164</v>
       </c>
       <c r="K6" t="n">
-        <v>414588.0667600073</v>
+        <v>415465.1988937572</v>
       </c>
       <c r="L6" t="n">
-        <v>414588.0667600073</v>
+        <v>415465.198893757</v>
       </c>
       <c r="M6" t="n">
-        <v>279787.0515261699</v>
+        <v>280664.1836599198</v>
       </c>
       <c r="N6" t="n">
-        <v>414588.0667600073</v>
+        <v>415465.1988937571</v>
       </c>
       <c r="O6" t="n">
-        <v>414588.0667600073</v>
+        <v>415465.198893757</v>
       </c>
       <c r="P6" t="n">
-        <v>414588.0667600074</v>
+        <v>415465.1988937569</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
     </row>
     <row r="4">
@@ -26795,22 +26795,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.926370499017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>206.5828674239353</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>14.16976881476925</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>171.2488638306984</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>393.2131402174618</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>167.6288530264337</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>19.88405377167442</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>3.806844538052015</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>292.5777964891153</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>335.2306406500769</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>22.21426855158853</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.806844538052015</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -29769,7 +29769,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29921,7 +29921,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31378,28 +31378,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>149.8971812516338</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>132.9984977071302</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -31846,16 +31846,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>91.84465193776617</v>
+        <v>91.84465193776759</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31867,10 +31867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -32086,28 +32086,28 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>213.984982912721</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
-        <v>155.8673437717538</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,28 +32305,28 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N18" t="n">
-        <v>429.757139380893</v>
+        <v>392.6063366508807</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32341,13 +32341,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,28 +32542,28 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>392.6063366508798</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32575,13 +32575,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,22 +32785,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>392.6063366508801</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32812,7 +32812,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,22 +33022,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>392.6063366508801</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33183,40 +33183,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M29" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,10 +33256,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -33268,13 +33268,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>392.6063366508803</v>
+        <v>392.6063366508805</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33286,13 +33286,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33356,7 +33356,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33368,10 +33368,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U31" t="n">
         <v>0.08167695791351813</v>
@@ -33420,40 +33420,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M32" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,10 +33493,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -33505,13 +33505,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>392.6063366508803</v>
+        <v>392.6063366508805</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33593,7 +33593,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33605,10 +33605,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U34" t="n">
         <v>0.08167695791351813</v>
@@ -33657,40 +33657,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,10 +33730,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -33742,13 +33742,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>392.6063366508803</v>
+        <v>392.6063366508805</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33830,7 +33830,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33842,10 +33842,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
         <v>0.08167695791351813</v>
@@ -33894,40 +33894,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,10 +33967,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -33979,13 +33979,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>208.1179754252732</v>
+        <v>208.1179754252735</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -33997,13 +33997,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34067,7 +34067,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34079,10 +34079,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34131,40 +34131,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927192</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647508</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,10 +34204,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -34216,13 +34216,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>17.79181538450968</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>94.51601612995739</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34234,13 +34234,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34304,7 +34304,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34316,10 +34316,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34368,40 +34368,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,25 +34441,25 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>353.0329386354462</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508805</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34471,13 +34471,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34541,7 +34541,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34553,10 +34553,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U46" t="n">
         <v>0.08167695791351813</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004663</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O12" t="n">
-        <v>343.1107267700513</v>
+        <v>343.1107267700527</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004663</v>
+        <v>537.5560127407026</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q15" t="n">
-        <v>225.9628574215814</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109074</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004665</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N18" t="n">
-        <v>777.7578016411132</v>
+        <v>740.606998911101</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718748</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>740.6069989111</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>740.6069989111003</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>740.6069989111003</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,10 +36919,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N30" t="n">
-        <v>740.6069989111005</v>
+        <v>740.6069989111007</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299105</v>
@@ -36998,7 +36998,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,10 +37156,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N33" t="n">
-        <v>740.6069989111005</v>
+        <v>740.6069989111007</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299105</v>
@@ -37235,7 +37235,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,10 +37393,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N36" t="n">
-        <v>740.6069989111005</v>
+        <v>740.6069989111007</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299105</v>
@@ -37472,7 +37472,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,10 +37630,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N39" t="n">
-        <v>556.1186376854935</v>
+        <v>556.1186376854937</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>250.0777809080947</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>442.5166783901776</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299105</v>
@@ -37946,7 +37946,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,19 +38098,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>585.3189041590311</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111007</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299105</v>
@@ -38183,7 +38183,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056036</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
